--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Web Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6305E41B-BD90-4BBC-B599-2F39A32BA87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D451CB5-CD6A-4A6F-A2CE-2635569AB0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>NAME</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>M. Subhan</t>
+  </si>
+  <si>
+    <t>20/1</t>
+  </si>
+  <si>
+    <t>22/1</t>
+  </si>
+  <si>
+    <t>Bilal Hassan</t>
+  </si>
+  <si>
+    <t>Safeer Ali</t>
   </si>
 </sst>
 </file>
@@ -132,10 +144,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,105 +456,117 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>651</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>613</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -550,13 +574,16 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>659</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -564,13 +591,16 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>658</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -578,27 +608,33 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>657</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>642</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -606,13 +642,16 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>646</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -620,55 +659,67 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>652</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>671</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>668</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>665</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -676,107 +727,137 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
